--- a/mobi_client/mobi_client/mobi_config/excel/AVGScripts/迷宫副本/202 今夕养老院.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/AVGScripts/迷宫副本/202 今夕养老院.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18525" windowHeight="17790" tabRatio="928" firstSheet="3" activeTab="9"/>
+    <workbookView windowWidth="28125" windowHeight="12420" tabRatio="928" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="maze202_part2" sheetId="6" r:id="rId1"/>
@@ -21,14 +21,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">maze202_part2!$A$1:$H$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">maze202_boss21!$A$1:$H$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">maze202_boss22!$A$1:$H$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">maze202_boss22!$A$1:$H$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">maze202_boss23!$A$1:$H$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">maze202_boss24!$A$1:$H$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">maze202_npc71!$A$1:$H$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">maze202_npc72!$A$1:$H$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">maze202_npc73!$A$1:$H$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">maze202_npc74!$A$1:$H$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">maze202_npc75!$A$1:$H$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">maze202_npc71!$A$1:$H$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">maze202_npc72!$A$1:$H$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">maze202_npc73!$A$1:$H$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">maze202_npc74!$A$1:$H$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">maze202_npc75!$A$1:$H$22</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -605,7 +605,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="53">
   <si>
     <t>说明</t>
   </si>
@@ -691,7 +691,7 @@
     <t>角色台词</t>
   </si>
   <si>
-    <t>总之，既然进来了，那就好好把这里探索一遍吧。找找看杜博士说的人工痕迹到底是什么。</t>
+    <t>{#凯瑟琳紧张动作}{#凯瑟琳动漫叹气挂件}{#凯瑟琳紧张表情}总之，既然进来了，那就好好把这里探索一遍吧。找找看杜博士说的人工痕迹到底是什么。</t>
   </si>
   <si>
     <t>跳转-标签</t>
@@ -706,10 +706,13 @@
     <t>我最喜欢做的事情呢，就是翘着脚看艺术片啦，毕竟我只是给巢主看大门的。</t>
   </si>
   <si>
-    <t>你问我喜欢看什么？烦人！反正肯定不是头文字啦！</t>
+    <t>你问我喜欢看什么？烦人！ 反正肯定不会是头文字啦！</t>
   </si>
   <si>
-    <t>做每一次选择之前你在想什么呢？来到这里不容易吧，接下来哪怕要跪着走，爬着走，你还要继续吗？</t>
+    <t>做每一次选择之前你在想什么呢？来到这里不容易吧，接下来</t>
+  </si>
+  <si>
+    <t>哪怕要跪着走，爬着走，你还要继续吗？</t>
   </si>
   <si>
     <t>唉，我好累，感觉已经没办法再爱上谁了。</t>
@@ -718,13 +721,36 @@
     <t>爱情这种事，就是要打开对方的一道道心门才可以，真不巧，你们遇上了看门的我！</t>
   </si>
   <si>
-    <t>开启机关1</t>
+    <t>上面有一个按钮，是否按下按钮？</t>
   </si>
   <si>
-    <t>开启机关2</t>
+    <t>type=1</t>
   </si>
   <si>
-    <t>开启机关3</t>
+    <t>可选对话框</t>
+  </si>
+  <si>
+    <t>$$按下按钮==&gt;按下按钮
+$$还是别乱动了==&gt;别乱动</t>
+  </si>
+  <si>
+    <t>按下按钮</t>
+  </si>
+  <si>
+    <t>远处好像传来了什么声响</t>
+  </si>
+  <si>
+    <t>结束且返回值</t>
+  </si>
+  <si>
+    <t>别乱动</t>
+  </si>
+  <si>
+    <t>$$按下按钮==&gt;按下按钮
+$$还是别乱动了==&gt;结束</t>
+  </si>
+  <si>
+    <t>好像没有什么事情发生……</t>
   </si>
   <si>
     <t>机关上印着一行字。</t>
@@ -736,7 +762,10 @@
     <t>触发</t>
   </si>
   <si>
-    <t>打开机关</t>
+    <t>楼上好像传来了什么声音</t>
+  </si>
+  <si>
+    <t>应该是二楼可以去了，快去看看吧！</t>
   </si>
 </sst>
 </file>
@@ -1915,7 +1944,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -16442,7 +16471,7 @@
       <c r="H8" s="36"/>
       <c r="I8" s="37"/>
     </row>
-    <row r="9" s="3" customFormat="1" customHeight="1" spans="1:16383">
+    <row r="9" s="3" customFormat="1" ht="30" customHeight="1" spans="1:16383">
       <c r="A9" s="27">
         <f>ROW()-6</f>
         <v>3</v>
@@ -45242,10 +45271,1878 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J15"/>
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.75833333333333" style="5" customWidth="1"/>
+    <col min="3" max="3" width="5.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="81.875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="29"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="19" customHeight="1" spans="1:10">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="14">
+        <f ca="1">INDEX($D$5:$D$782,CELL("row")-4)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="15" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F2" s="15" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G2" s="16" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H2" s="16" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A6" s="27">
+        <f t="shared" ref="A6:A20" si="0">ROW()-6</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="6"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A7" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" s="3" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A8" s="27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="30"/>
+    </row>
+    <row r="9" s="3" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A9" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="30"/>
+    </row>
+    <row r="10" s="3" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A10" s="27">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A11" s="27">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A12" s="27">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" s="3" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A13" s="27">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="30"/>
+    </row>
+    <row r="14" s="3" customFormat="1" ht="31" customHeight="1" spans="1:10">
+      <c r="A14" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" s="3" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A15" s="27">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="9"/>
+      <c r="J15" s="30"/>
+    </row>
+    <row r="16" s="3" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A16" s="27">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="30"/>
+    </row>
+    <row r="17" s="3" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A17" s="27">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="30"/>
+    </row>
+    <row r="18" s="3" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A18" s="27">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="J18" s="30"/>
+    </row>
+    <row r="19" s="3" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A19" s="27">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A20" s="27">
+        <f t="shared" ref="A20:A22" si="1">ROW()-6</f>
+        <v>14</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="6"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:6">
+      <c r="A21" s="27">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:2">
+      <c r="A22" s="27">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H22">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet15"/>
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.75833333333333" style="5" customWidth="1"/>
+    <col min="3" max="3" width="5.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="81.875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="29"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="19" customHeight="1" spans="1:10">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="14">
+        <f ca="1">INDEX($D$5:$D$773,CELL("row")-4)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="15" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F2" s="15" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G2" s="16" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H2" s="16" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A6" s="27">
+        <f t="shared" ref="A6:A11" si="0">ROW()-6</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="6"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A7" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" s="3" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A8" s="27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="J8" s="30"/>
+    </row>
+    <row r="9" s="3" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A9" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="J9" s="30"/>
+    </row>
+    <row r="10" s="3" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A10" s="27">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A11" s="27">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6"/>
+      <c r="J11" s="8"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H11">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet16"/>
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.75833333333333" style="5" customWidth="1"/>
+    <col min="3" max="3" width="5.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="81.875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="29"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="19" customHeight="1" spans="1:10">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="14">
+        <f ca="1">INDEX($D$5:$D$773,CELL("row")-4)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="15" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F2" s="15" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G2" s="16" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H2" s="16" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A6" s="27">
+        <f t="shared" ref="A6:A11" si="0">ROW()-6</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="6"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A7" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" s="3" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A8" s="27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="J8" s="30"/>
+    </row>
+    <row r="9" s="3" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A9" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="J9" s="30"/>
+    </row>
+    <row r="10" s="3" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A10" s="27">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A11" s="27">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6"/>
+      <c r="J11" s="8"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H11">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.75833333333333" style="5" customWidth="1"/>
+    <col min="3" max="3" width="5.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="81.875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="29"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="19" customHeight="1" spans="1:10">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="14">
+        <f ca="1">INDEX($D$5:$D$772,CELL("row")-4)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="15" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F2" s="15" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G2" s="16" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H2" s="16" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A6" s="27">
+        <f>ROW()-6</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="6"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A7" s="27">
+        <f>ROW()-6</f>
+        <v>1</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" s="3" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A8" s="27">
+        <f>ROW()-6</f>
+        <v>2</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="J8" s="30"/>
+    </row>
+    <row r="9" s="3" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A9" s="27">
+        <f>ROW()-6</f>
+        <v>3</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A10" s="27">
+        <f>ROW()-6</f>
+        <v>4</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="6"/>
+      <c r="J10" s="8"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H10">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.75833333333333" style="5" customWidth="1"/>
+    <col min="3" max="3" width="5.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="81.875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="29"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="19" customHeight="1" spans="1:10">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="14">
+        <f ca="1">INDEX($D$5:$D$772,CELL("row")-4)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="15" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F2" s="15" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G2" s="16" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H2" s="16" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A6" s="27">
+        <f t="shared" ref="A6:A10" si="0">ROW()-6</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="6"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A7" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" s="3" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A8" s="27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="J8" s="30"/>
+    </row>
+    <row r="9" s="3" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A9" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A10" s="27">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="6"/>
+      <c r="J10" s="8"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H10">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.75833333333333" style="5" customWidth="1"/>
+    <col min="3" max="3" width="5.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="81.875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="29"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="19" customHeight="1" spans="1:10">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="14">
+        <f ca="1">INDEX($D$5:$D$776,CELL("row")-4)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="15" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F2" s="15" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G2" s="16" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H2" s="16" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A6" s="27">
+        <f t="shared" ref="A6:A16" si="0">ROW()-6</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="6"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A7" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" s="3" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A8" s="27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="30"/>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="32" customHeight="1" spans="1:10">
+      <c r="A9" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="J9" s="30"/>
+    </row>
+    <row r="10" s="3" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A10" s="27">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="9"/>
+      <c r="J10" s="30"/>
+    </row>
+    <row r="11" s="3" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A11" s="27">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="30"/>
+    </row>
+    <row r="12" s="3" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A12" s="27">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="J12" s="30"/>
+    </row>
+    <row r="13" s="3" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A13" s="27">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A14" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="6"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:6">
+      <c r="A15" s="27">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:2">
+      <c r="A16" s="27">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H16">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
@@ -45296,7 +47193,7 @@
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="14">
-        <f ca="1">INDEX($D$5:$D$777,CELL("row")-4)</f>
+        <f ca="1">INDEX($D$5:$D$772,CELL("row")-4)</f>
         <v>0</v>
       </c>
       <c r="E2" s="15" t="e">
@@ -45444,12 +47341,15 @@
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G8" s="9"/>
+      <c r="H8" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" s="3" customFormat="1" customHeight="1" spans="1:10">
+    <row r="9" s="3" customFormat="1" ht="31" customHeight="1" spans="1:10">
       <c r="A9" s="27">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -45457,127 +47357,88 @@
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="9" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="28" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="J9" s="30"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="8"/>
     </row>
-    <row r="10" s="3" customFormat="1" customHeight="1" spans="1:10">
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A10" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="3"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:10">
+    <row r="11" customHeight="1" spans="1:8">
       <c r="A11" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="8"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="12" s="2" customFormat="1" customHeight="1" spans="1:10">
+    <row r="12" customHeight="1" spans="1:8">
       <c r="A12" s="27">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="8"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="3"/>
     </row>
-    <row r="13" s="3" customFormat="1" customHeight="1" spans="1:10">
+    <row r="13" customHeight="1" spans="1:4">
       <c r="A13" s="27">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="30"/>
+      <c r="D13" s="9"/>
     </row>
-    <row r="14" s="3" customFormat="1" customHeight="1" spans="1:10">
+    <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="27">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" s="2" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A15" s="27">
-        <f>ROW()-6</f>
-        <v>9</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="6"/>
-      <c r="J15" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H15">
+  <autoFilter ref="A1:H14">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45587,15 +47448,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet15"/>
-  <dimension ref="A1:J11"/>
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -45643,7 +47504,7 @@
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="14">
-        <f ca="1">INDEX($D$5:$D$773,CELL("row")-4)</f>
+        <f ca="1">INDEX($D$5:$D$772,CELL("row")-4)</f>
         <v>0</v>
       </c>
       <c r="E2" s="15" t="e">
@@ -45747,7 +47608,7 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A6" s="27">
-        <f t="shared" ref="A6:A11" si="0">ROW()-6</f>
+        <f t="shared" ref="A6:A14" si="0">ROW()-6</f>
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -45789,16 +47650,17 @@
       <c r="D8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="E8" s="9"/>
       <c r="F8" s="28" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G8" s="9"/>
+      <c r="H8" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" s="3" customFormat="1" customHeight="1" spans="1:10">
+    <row r="9" s="3" customFormat="1" ht="31" customHeight="1" spans="1:10">
       <c r="A9" s="27">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -45806,53 +47668,88 @@
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>31</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E9" s="9"/>
       <c r="F9" s="28" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="J9" s="30"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="8"/>
     </row>
-    <row r="10" s="3" customFormat="1" customHeight="1" spans="1:10">
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A10" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="3"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:10">
+    <row r="11" customHeight="1" spans="1:8">
       <c r="A11" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:8">
+      <c r="A12" s="27">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="6"/>
-      <c r="J11" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="27">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:2">
+      <c r="A14" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H11">
+  <autoFilter ref="A1:H14">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45862,15 +47759,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet16"/>
-  <dimension ref="A1:J10"/>
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -46022,519 +47919,7 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A6" s="27">
-        <f>ROW()-6</f>
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" s="2" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A7" s="27">
-        <f>ROW()-6</f>
-        <v>1</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" s="3" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A8" s="27">
-        <f>ROW()-6</f>
-        <v>2</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="J8" s="30"/>
-    </row>
-    <row r="9" s="3" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A9" s="27">
-        <f>ROW()-6</f>
-        <v>3</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A10" s="27">
-        <f>ROW()-6</f>
-        <v>4</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6"/>
-      <c r="J10" s="8"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:H10">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="3.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.75833333333333" style="5" customWidth="1"/>
-    <col min="3" max="3" width="5.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19.375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="81.875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.375" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="29"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="19" customHeight="1" spans="1:10">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="14">
-        <f ca="1">INDEX($D$5:$D$772,CELL("row")-4)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="15" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F2" s="15" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G2" s="16" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" s="16" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A3" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A4" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A5" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A6" s="27">
-        <f>ROW()-6</f>
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" s="2" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A7" s="27">
-        <f>ROW()-6</f>
-        <v>1</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" s="3" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A8" s="27">
-        <f>ROW()-6</f>
-        <v>2</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="J8" s="30"/>
-    </row>
-    <row r="9" s="3" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A9" s="27">
-        <f>ROW()-6</f>
-        <v>3</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A10" s="27">
-        <f>ROW()-6</f>
-        <v>4</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6"/>
-      <c r="J10" s="8"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:H10">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="3.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.75833333333333" style="5" customWidth="1"/>
-    <col min="3" max="3" width="5.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19.375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="81.875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.375" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="29"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="19" customHeight="1" spans="1:10">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="14">
-        <f ca="1">INDEX($D$5:$D$772,CELL("row")-4)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="15" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F2" s="15" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G2" s="16" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" s="16" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A3" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A4" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A5" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A6" s="27">
-        <f t="shared" ref="A6:A10" si="0">ROW()-6</f>
+        <f t="shared" ref="A6:A14" si="0">ROW()-6</f>
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -46576,16 +47961,17 @@
       <c r="D8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="E8" s="9"/>
       <c r="F8" s="28" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G8" s="9"/>
+      <c r="H8" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" s="3" customFormat="1" customHeight="1" spans="1:10">
+    <row r="9" s="3" customFormat="1" ht="31" customHeight="1" spans="1:10">
       <c r="A9" s="27">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -46593,14 +47979,13 @@
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="9"/>
       <c r="I9" s="2"/>
       <c r="J9" s="8"/>
     </row>
@@ -46609,1034 +47994,73 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6"/>
+      <c r="B10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="3"/>
       <c r="J10" s="8"/>
     </row>
-  </sheetData>
-  <autoFilter ref="A1:H10">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="3.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.75833333333333" style="5" customWidth="1"/>
-    <col min="3" max="3" width="5.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19.375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="81.875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.375" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="13" t="s">
+    <row r="11" customHeight="1" spans="1:8">
+      <c r="A11" s="27">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J1" s="29"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="19" customHeight="1" spans="1:10">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="14">
-        <f ca="1">INDEX($D$5:$D$772,CELL("row")-4)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="15" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F2" s="15" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G2" s="16" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" s="16" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J2" s="29" t="s">
+    <row r="12" customHeight="1" spans="1:8">
+      <c r="A12" s="27">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="3"/>
     </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A3" s="17" t="s">
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="27">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:2">
+      <c r="A14" s="27">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A4" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A5" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A6" s="27">
-        <f>ROW()-6</f>
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" s="2" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A7" s="27">
-        <f>ROW()-6</f>
-        <v>1</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" s="3" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A8" s="27">
-        <f>ROW()-6</f>
-        <v>2</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="J8" s="30"/>
-    </row>
-    <row r="9" s="3" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A9" s="27">
-        <f>ROW()-6</f>
-        <v>3</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A10" s="27">
-        <f>ROW()-6</f>
-        <v>4</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6"/>
-      <c r="J10" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H10">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="3.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.75833333333333" style="5" customWidth="1"/>
-    <col min="3" max="3" width="5.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19.375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="81.875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.375" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="29"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="19" customHeight="1" spans="1:10">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="14">
-        <f ca="1">INDEX($D$5:$D$772,CELL("row")-4)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="15" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F2" s="15" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G2" s="16" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" s="16" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A3" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A4" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A5" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A6" s="27">
-        <f>ROW()-6</f>
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" s="2" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A7" s="27">
-        <f>ROW()-6</f>
-        <v>1</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" s="3" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A8" s="27">
-        <f>ROW()-6</f>
-        <v>2</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="J8" s="30"/>
-    </row>
-    <row r="9" s="3" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A9" s="27">
-        <f>ROW()-6</f>
-        <v>3</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A10" s="27">
-        <f>ROW()-6</f>
-        <v>4</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6"/>
-      <c r="J10" s="8"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:H10">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="3.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.75833333333333" style="5" customWidth="1"/>
-    <col min="3" max="3" width="5.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19.375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="81.875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.375" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="29"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="19" customHeight="1" spans="1:10">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="14">
-        <f ca="1">INDEX($D$5:$D$772,CELL("row")-4)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="15" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F2" s="15" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G2" s="16" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" s="16" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A3" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A4" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A5" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A6" s="27">
-        <f>ROW()-6</f>
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" s="2" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A7" s="27">
-        <f>ROW()-6</f>
-        <v>1</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" s="3" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A8" s="27">
-        <f>ROW()-6</f>
-        <v>2</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="J8" s="30"/>
-    </row>
-    <row r="9" s="3" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A9" s="27">
-        <f>ROW()-6</f>
-        <v>3</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A10" s="27">
-        <f>ROW()-6</f>
-        <v>4</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6"/>
-      <c r="J10" s="8"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:H10">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="3.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.75833333333333" style="5" customWidth="1"/>
-    <col min="3" max="3" width="5.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19.375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="81.875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.375" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="29"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="19" customHeight="1" spans="1:10">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="14">
-        <f ca="1">INDEX($D$5:$D$772,CELL("row")-4)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="15" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F2" s="15" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G2" s="16" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" s="16" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A3" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A4" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A5" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A6" s="27">
-        <f>ROW()-6</f>
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" s="2" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A7" s="27">
-        <f>ROW()-6</f>
-        <v>1</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" s="3" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A8" s="27">
-        <f>ROW()-6</f>
-        <v>2</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="J8" s="30"/>
-    </row>
-    <row r="9" s="3" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A9" s="27">
-        <f>ROW()-6</f>
-        <v>3</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A10" s="27">
-        <f>ROW()-6</f>
-        <v>4</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6"/>
-      <c r="J10" s="8"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:H10">
+  <autoFilter ref="A1:H14">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
